--- a/experiments/allidb2_pca_orig_1.xlsx
+++ b/experiments/allidb2_pca_orig_1.xlsx
@@ -2,20 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
-  <workbookPr showInkAnnotation="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dangkhoaletan/Mitacs/SourceCode/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="increPCA_28" sheetId="4" r:id="rId1"/>
-    <sheet name="randomizedPCA_55" sheetId="3" r:id="rId2"/>
-    <sheet name="randomizedPCA" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="randomizedPC_hog" sheetId="7" r:id="rId1"/>
+    <sheet name="randomizedPCA_canny_hog" sheetId="6" r:id="rId2"/>
+    <sheet name="randomizedPCA_canny" sheetId="5" r:id="rId3"/>
+    <sheet name="increPCA_28" sheetId="4" r:id="rId4"/>
+    <sheet name="randomizedPCA_55" sheetId="3" r:id="rId5"/>
+    <sheet name="randomizedPCA" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
     <t>n_components</t>
   </si>
@@ -148,7 +151,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>increPCA_28!$B$1</c:f>
+              <c:f>randomizedPC_hog!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -171,7 +174,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>increPCA_28!$A$2:$A$61</c:f>
+              <c:f>randomizedPC_hog!$A$2:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -179,154 +182,154 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>14.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>26.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>32.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>38.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>44.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="22">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>50.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="28">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>62.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="31">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>68.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="34">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>74.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="37">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>80.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="40">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>86.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="43">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>92.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="46">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>104.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>122.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>146.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>152.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>158.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>164.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>176.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>182.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>188.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>194.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>206.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>212.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>218.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>224.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>230.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>236.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>242.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>248.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>254.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>260.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>266.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>272.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>278.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>284.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>290.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>296.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>250.0</c:v>
+                  <c:v>296.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>255.0</c:v>
@@ -360,162 +363,162 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>increPCA_28!$B$2:$B$61</c:f>
+              <c:f>randomizedPC_hog!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>0.825396825</c:v>
+                  <c:v>0.841269841269841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.777777778</c:v>
+                  <c:v>0.793650793650793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.777777778</c:v>
+                  <c:v>0.603174603174603</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.777777778</c:v>
+                  <c:v>0.841269841269841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.841269841</c:v>
+                  <c:v>0.73015873015873</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.825396825</c:v>
+                  <c:v>0.809523809523809</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.825396825</c:v>
+                  <c:v>0.809523809523809</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.793650794</c:v>
+                  <c:v>0.825396825396825</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80952381</c:v>
+                  <c:v>0.825396825396825</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.80952381</c:v>
+                  <c:v>0.634920634920634</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.682539683</c:v>
+                  <c:v>0.634920634920634</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.587301587301587</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.761904761904761</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.746031746031746</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.634920634920634</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73015873015873</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.746031746031746</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65079365079365</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.73015873015873</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.761904761904761</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.73015873015873</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.682539682539682</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65079365079365</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.746031746031746</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.73015873015873</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.682539682539682</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.65079365079365</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.682539682539682</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.73015873015873</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.65079365079365</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0.634920635</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.746031746</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.714285714</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.746031746</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.793650794</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.73015873</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.761904762</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.793650794</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.761904762</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.682539683</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.793650794</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.777777778</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.793650794</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.666666667</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.682539683</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="50">
                   <c:v>0.634920635</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.587301587</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.46031746</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.46031746031746</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.46031746031746</c:v>
@@ -558,11 +561,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2095971392"/>
-        <c:axId val="-2095988272"/>
+        <c:axId val="-2068985248"/>
+        <c:axId val="-2070019392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2095971392"/>
+        <c:axId val="-2068985248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,7 +608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095988272"/>
+        <c:crossAx val="-2070019392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -613,7 +616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095988272"/>
+        <c:axId val="-2070019392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -665,7 +668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095971392"/>
+        <c:crossAx val="-2068985248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -802,7 +805,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>randomizedPCA_55!$B$1</c:f>
+              <c:f>randomizedPCA_canny_hog!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -825,7 +828,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>randomizedPCA_55!$A$2:$A$61</c:f>
+              <c:f>randomizedPCA_canny_hog!$A$2:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -833,370 +836,370 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>14.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="19">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>26.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="25">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>32.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="31">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>38.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="37">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>44.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="43">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>50.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="49">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>104.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>122.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>146.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>152.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>158.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>164.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>176.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>182.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>188.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>194.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>206.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>212.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>218.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>224.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>230.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>236.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>242.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>248.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>254.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>260.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>266.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>272.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>278.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>284.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>290.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>296.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>250.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>260.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>265.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>270.0</c:v>
-                </c:pt>
                 <c:pt idx="55">
-                  <c:v>275.0</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>280.0</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>285.0</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>290.0</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>295.0</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>randomizedPCA_55!$B$2:$B$61</c:f>
+              <c:f>randomizedPCA_canny_hog!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>0.711999999999999</c:v>
+                  <c:v>0.523809523809523</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.711999999999999</c:v>
+                  <c:v>0.555555555555555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68</c:v>
+                  <c:v>0.587301587301587</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.719999999999999</c:v>
+                  <c:v>0.603174603174603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.664</c:v>
+                  <c:v>0.539682539682539</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.687999999999999</c:v>
+                  <c:v>0.587301587301587</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64</c:v>
+                  <c:v>0.476190476190476</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64</c:v>
+                  <c:v>0.476190476190476</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.656</c:v>
+                  <c:v>0.444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.703999999999999</c:v>
+                  <c:v>0.539682539682539</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.703999999999999</c:v>
+                  <c:v>0.619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.711999999999999</c:v>
+                  <c:v>0.65079365079365</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.672</c:v>
+                  <c:v>0.746031746031746</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.727999999999999</c:v>
+                  <c:v>0.476190476190476</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.672</c:v>
+                  <c:v>0.619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.695999999999999</c:v>
+                  <c:v>0.539682539682539</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.656</c:v>
+                  <c:v>0.523809523809523</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.552</c:v>
+                  <c:v>0.428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.64</c:v>
+                  <c:v>0.476190476190476</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.64</c:v>
+                  <c:v>0.492063492063492</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.512</c:v>
+                  <c:v>0.476190476190476</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.599999999999999</c:v>
+                  <c:v>0.539682539682539</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.415999999999999</c:v>
+                  <c:v>0.46031746031746</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.512</c:v>
+                  <c:v>0.523809523809523</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.52</c:v>
+                  <c:v>0.476190476190476</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.544</c:v>
+                  <c:v>0.476190476190476</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.471999999999999</c:v>
+                  <c:v>0.634920634920634</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.52</c:v>
+                  <c:v>0.476190476190476</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.544</c:v>
+                  <c:v>0.507936507936507</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.512</c:v>
+                  <c:v>0.539682539682539</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.479999999999999</c:v>
+                  <c:v>0.476190476190476</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.44</c:v>
+                  <c:v>0.555555555555555</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.448</c:v>
+                  <c:v>0.539682539682539</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.56</c:v>
+                  <c:v>0.523809523809523</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.448</c:v>
+                  <c:v>0.492063492063492</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.487999999999999</c:v>
+                  <c:v>0.492063492063492</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.423999999999999</c:v>
+                  <c:v>0.492063492063492</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.52</c:v>
+                  <c:v>0.507936507936507</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.415999999999999</c:v>
+                  <c:v>0.492063492063492</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.504</c:v>
+                  <c:v>0.539682539682539</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.552</c:v>
+                  <c:v>0.507936507936507</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.52</c:v>
+                  <c:v>0.603174603174603</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.536</c:v>
+                  <c:v>0.492063492063492</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.536</c:v>
+                  <c:v>0.523809523809523</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.471999999999999</c:v>
+                  <c:v>0.523809523809523</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.471999999999999</c:v>
+                  <c:v>0.603174603174603</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.487999999999999</c:v>
+                  <c:v>0.555555555555555</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.44</c:v>
+                  <c:v>0.539682539682539</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.456</c:v>
+                  <c:v>0.587301587301587</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.479999999999999</c:v>
+                  <c:v>0.65079365079365</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.539682539682539</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.523809523809523</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.587301587301587</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.603174603174603</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.507936507936507</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.507936507936507</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.539682539682539</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.603174603174603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,11 +1215,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2096901456"/>
-        <c:axId val="-2102959632"/>
+        <c:axId val="-2062133680"/>
+        <c:axId val="-2066521296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2096901456"/>
+        <c:axId val="-2062133680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1259,7 +1262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102959632"/>
+        <c:crossAx val="-2066521296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1267,7 +1270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102959632"/>
+        <c:axId val="-2066521296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -1319,7 +1322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096901456"/>
+        <c:crossAx val="-2062133680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1456,7 +1459,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>randomizedPCA!$B$1</c:f>
+              <c:f>randomizedPCA_canny!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1479,159 +1482,159 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>randomizedPCA!$A$2:$A$61</c:f>
+              <c:f>randomizedPCA_canny!$A$2:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.0</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.0</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.0</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.0</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56.0</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61.0</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71.0</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.0</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81.0</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>86.0</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>91.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>96.0</c:v>
+                  <c:v>116.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100.0</c:v>
+                  <c:v>122.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>105.0</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>110.0</c:v>
+                  <c:v>134.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>115.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>120.0</c:v>
+                  <c:v>146.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>125.0</c:v>
+                  <c:v>152.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>130.0</c:v>
+                  <c:v>158.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>135.0</c:v>
+                  <c:v>164.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>140.0</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>145.0</c:v>
+                  <c:v>176.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>150.0</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>155.0</c:v>
+                  <c:v>188.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>160.0</c:v>
+                  <c:v>194.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>165.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>170.0</c:v>
+                  <c:v>206.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>175.0</c:v>
+                  <c:v>212.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>180.0</c:v>
+                  <c:v>218.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>185.0</c:v>
+                  <c:v>224.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>190.0</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>195.0</c:v>
+                  <c:v>236.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>200.0</c:v>
+                  <c:v>242.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>205.0</c:v>
+                  <c:v>248.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>210.0</c:v>
+                  <c:v>254.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>215.0</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>220.0</c:v>
+                  <c:v>266.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>225.0</c:v>
+                  <c:v>272.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>230.0</c:v>
+                  <c:v>278.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>235.0</c:v>
+                  <c:v>284.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>240.0</c:v>
+                  <c:v>290.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>245.0</c:v>
+                  <c:v>296.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>250.0</c:v>
@@ -1668,159 +1671,159 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>randomizedPCA!$B$2:$B$61</c:f>
+              <c:f>randomizedPCA_canny!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>0.746031746031746</c:v>
+                  <c:v>0.682539683</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.714285714285714</c:v>
+                  <c:v>0.571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.761904761904761</c:v>
+                  <c:v>0.666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.809523809523809</c:v>
+                  <c:v>0.634920635</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.809523809523809</c:v>
+                  <c:v>0.746031746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.777777777777777</c:v>
+                  <c:v>0.666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.873015873015873</c:v>
+                  <c:v>0.634920635</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.825396825396825</c:v>
+                  <c:v>0.619047619</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.777777777777777</c:v>
+                  <c:v>0.650793651</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.777777777777777</c:v>
+                  <c:v>0.682539683</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.666666666666666</c:v>
+                  <c:v>0.619047619</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.761904761904761</c:v>
+                  <c:v>0.682539683</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.746031746031746</c:v>
+                  <c:v>0.666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.793650793650793</c:v>
+                  <c:v>0.666666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.714285714285714</c:v>
+                  <c:v>0.682539683</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.793650793650793</c:v>
+                  <c:v>0.650793651</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.761904761904761</c:v>
+                  <c:v>0.714285714</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.698412698412698</c:v>
+                  <c:v>0.634920635</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.698412698412698</c:v>
+                  <c:v>0.666666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.761904761904761</c:v>
+                  <c:v>0.666666667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.603174603174603</c:v>
+                  <c:v>0.587301587</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.682539682539682</c:v>
+                  <c:v>0.698412698</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.698412698412698</c:v>
+                  <c:v>0.634920635</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.698412698412698</c:v>
+                  <c:v>0.682539683</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.761904761904761</c:v>
+                  <c:v>0.634920635</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.761904761904761</c:v>
+                  <c:v>0.682539683</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.746031746031746</c:v>
+                  <c:v>0.634920635</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.698412698412698</c:v>
+                  <c:v>0.619047619</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.714285714285714</c:v>
+                  <c:v>0.53968254</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.682539682539682</c:v>
+                  <c:v>0.523809524</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.634920634920634</c:v>
+                  <c:v>0.476190476</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.682539682539682</c:v>
+                  <c:v>0.412698413</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.634920634920634</c:v>
+                  <c:v>0.428571429</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.619047619047619</c:v>
+                  <c:v>0.444444444</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.682539682539682</c:v>
+                  <c:v>0.444444444</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.587301587301587</c:v>
+                  <c:v>0.555555556</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.587301587301587</c:v>
+                  <c:v>0.523809524</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.555555555555555</c:v>
+                  <c:v>0.507936508</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.507936508</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.603174603174603</c:v>
+                  <c:v>0.571428571</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.46031746</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.444444444</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.539682539682539</c:v>
+                  <c:v>0.571428571</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.507936508</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.492063492</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.587301587</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.555555556</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.507936508</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.523809524</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.46031746031746</c:v>
+                  <c:v>0.46031746</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0.46031746031746</c:v>
@@ -1866,11 +1869,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2110548656"/>
-        <c:axId val="-2110999184"/>
+        <c:axId val="-2038703456"/>
+        <c:axId val="-2059672208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2110548656"/>
+        <c:axId val="-2038703456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +1916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110999184"/>
+        <c:crossAx val="-2059672208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1921,7 +1924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110999184"/>
+        <c:axId val="-2059672208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -1973,7 +1976,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110548656"/>
+        <c:crossAx val="-2038703456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1988,6 +1991,1962 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>increPCA_28!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>increPCA_28!$A$2:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>206.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>236.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>254.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>266.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>272.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>284.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>296.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>increPCA_28!$B$2:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.825396825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.777777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.777777778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.777777778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.841269841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.825396825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.825396825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.793650794</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80952381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80952381</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.682539683</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.634920635</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.746031746</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.714285714</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.746031746</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.793650794</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73015873</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.761904762</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.793650794</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.761904762</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.682539683</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.793650794</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.777777778</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.793650794</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.666666667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.682539683</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.634920635</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.587301587</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.46031746</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2067684576"/>
+        <c:axId val="-2061615920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2067684576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2061615920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2061615920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2067684576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>randomizedPCA_55!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>randomizedPCA_55!$A$2:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>206.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>236.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>254.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>266.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>272.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>284.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>296.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>randomizedPCA_55!$B$2:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.711999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.711999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.687999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.656</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.703999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.703999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.711999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.672</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.727999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.672</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.695999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.656</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.552</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.512</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.415999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.512</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.544</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.471999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.544</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.512</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.448</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.448</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.487999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.415999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.552</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.536</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.536</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.471999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.471999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.487999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.456</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2063000912"/>
+        <c:axId val="-2071822976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2063000912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2071822976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2071822976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2063000912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>randomizedPCA!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>randomizedPCA!$A$2:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>randomizedPCA!$B$2:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.746031746031746</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.761904761904761</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.809523809523809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.809523809523809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.873015873015873</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.825396825396825</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.761904761904761</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.746031746031746</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.761904761904761</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.761904761904761</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.603174603174603</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.682539682539682</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.761904761904761</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.761904761904761</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.746031746031746</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.682539682539682</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.634920634920634</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.682539682539682</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.634920634920634</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.619047619047619</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.682539682539682</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.587301587301587</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.587301587301587</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.555555555555555</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.603174603174603</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.539682539682539</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.46031746031746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2067633040"/>
+        <c:axId val="-2065108304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2067633040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2065108304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2065108304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2067633040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2174,6 +4133,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3207,6 +5286,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3797,6 +7424,117 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4094,10 +7832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4111,395 +7850,395 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.825396825</v>
+      <c r="B2">
+        <v>0.84126984126984095</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.79365079365079305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.60317460317460303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.77777777800000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="B5">
+        <v>0.84126984126984095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.73015873015873001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.80952380952380898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>14</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.77777777800000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="B8">
+        <v>0.80952380952380898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0.82539682539682502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.82539682539682502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>20</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.77777777800000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="B11">
+        <v>0.634920634920634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>0.634920634920634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>0.58730158730158699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>26</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.84126984100000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="B14">
+        <v>0.76190476190476097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>0.74603174603174605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>32</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.825396825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="B17">
+        <v>0.634920634920634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>0.73015873015873001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>38</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.825396825</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="B20">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>0.74603174603174605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>0.65079365079365004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>44</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.79365079400000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="B23">
+        <v>0.73015873015873001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>0.69841269841269804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>50</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.80952380999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="B26">
+        <v>0.76190476190476097</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <v>0.69841269841269804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>56</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.80952380999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="B29">
+        <v>0.69841269841269804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>0.69841269841269804</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>0.79365079365079305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>62</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.68253968300000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="B32">
+        <v>0.69841269841269804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>64</v>
+      </c>
+      <c r="B33">
+        <v>0.73015873015873001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>66</v>
+      </c>
+      <c r="B34">
+        <v>0.79365079365079305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>68</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.63492063499999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="B35">
+        <v>0.69841269841269804</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>70</v>
+      </c>
+      <c r="B36">
+        <v>0.682539682539682</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>72</v>
+      </c>
+      <c r="B37">
+        <v>0.65079365079365004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>74</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.746031746</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="B38">
+        <v>0.74603174603174605</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>76</v>
+      </c>
+      <c r="B39">
+        <v>0.73015873015873001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>78</v>
+      </c>
+      <c r="B40">
+        <v>0.69841269841269804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>80</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.71428571399999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="B41">
+        <v>0.69841269841269804</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>82</v>
+      </c>
+      <c r="B42">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>84</v>
+      </c>
+      <c r="B43">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>86</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.746031746</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="B44">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>88</v>
+      </c>
+      <c r="B45">
+        <v>0.682539682539682</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>90</v>
+      </c>
+      <c r="B46">
+        <v>0.65079365079365004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>92</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.79365079400000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="B47">
+        <v>0.682539682539682</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>94</v>
+      </c>
+      <c r="B48">
+        <v>0.73015873015873001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>96</v>
+      </c>
+      <c r="B49">
+        <v>0.65079365079365004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>98</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.73015872999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>104</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.76190476200000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>110</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.79365079400000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>116</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.76190476200000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>122</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.68253968300000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>128</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.79365079400000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>134</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.77777777800000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>140</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>146</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>152</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.79365079400000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>158</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.66666666699999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>164</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>170</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.68253968300000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>176</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.63492063499999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>182</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.58730158700000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>188</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>194</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>200</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>206</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>212</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>218</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>224</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>230</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>236</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>242</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>248</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>254</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>260</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>266</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>272</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>278</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>284</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0.46031746000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>290</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0.46031746000000001</v>
+      <c r="B50">
+        <v>0.69841269841269804</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -4507,15 +8246,15 @@
         <v>296</v>
       </c>
       <c r="B51" s="1">
-        <v>0.46031746000000001</v>
+        <v>0.63492063499999996</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>250</v>
-      </c>
-      <c r="B52">
-        <v>0.46031746031746001</v>
+      <c r="A52" s="1">
+        <v>296</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.63492063499999996</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -4599,6 +8338,1829 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:B99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.52380952380952295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.55555555555555503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.58730158730158699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.60317460317460303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.53968253968253899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.58730158730158699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.476190476190476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.476190476190476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.44444444444444398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.53968253968253899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.61904761904761896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.65079365079365004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.74603174603174605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.476190476190476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.61904761904761896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0.53968253968253899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0.52380952380952295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0.42857142857142799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0.476190476190476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0.49206349206349198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0.476190476190476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0.53968253968253899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0.52380952380952295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0.476190476190476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0.476190476190476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>0.634920634920634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>0.476190476190476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>0.50793650793650702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>0.53968253968253899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>0.476190476190476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0.55555555555555503</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>0.53968253968253899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>0.52380952380952295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>0.49206349206349198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>0.49206349206349198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>0.49206349206349198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>0.50793650793650702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>0.49206349206349198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>0.53968253968253899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>0.50793650793650702</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>0.60317460317460303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>0.49206349206349198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>0.52380952380952295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>0.52380952380952295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>0.60317460317460303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>0.55555555555555503</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>0.53968253968253899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>0.58730158730158699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>0.65079365079365004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>0.53968253968253899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>0.52380952380952295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>0.58730158730158699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>0.60317460317460303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>0.50793650793650702</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>0.50793650793650702</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>0.53968253968253899</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>0.60317460317460303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>0.55555555555555503</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>0.52380952380952295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>0.52380952380952295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>0.61904761904761896</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>0.58730158730158699</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>0.58730158730158699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>0.49206349206349198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>0.50793650793650702</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>0.65079365079365004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>0.53968253968253899</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>0.58730158730158699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>0.55555555555555503</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>0.55555555555555503</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>0.61904761904761896</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>0.634920634920634</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>0.634920634920634</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>0.634920634920634</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>0.60317460317460303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>0.65079365079365004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>0.55555555555555503</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>0.58730158730158699</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>0.60317460317460303</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>0.49206349206349198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>0.61904761904761896</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>0.52380952380952295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>0.55555555555555503</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>0.52380952380952295</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>0.52380952380952295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>0.50793650793650702</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>0.476190476190476</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>0.49206349206349198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>0.58730158730158699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:B61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.68253968300000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.571428571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.63492063499999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.746031746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.63492063499999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.61904761900000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.65079365099999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.68253968300000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.61904761900000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.68253968300000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>74</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>80</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.68253968300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>92</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.65079365099999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.71428571399999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>104</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.63492063499999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>110</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>116</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>122</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.58730158700000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>128</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.69841269800000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>134</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.63492063499999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>140</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.68253968300000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>146</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.63492063499999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>152</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.68253968300000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>158</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.63492063499999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>164</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.61904761900000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>170</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.53968254000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>176</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.52380952400000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>182</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.47619047599999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>188</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.41269841299999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>194</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.428571429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>200</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.44444444399999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>206</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.44444444399999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>212</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.55555555599999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>218</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.52380952400000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>224</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.50793650800000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>230</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.50793650800000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>236</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.571428571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>242</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>248</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.44444444399999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>254</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.571428571</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>260</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.50793650800000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>266</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.49206349199999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>272</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.58730158700000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>278</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.55555555599999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>284</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.50793650800000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>290</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.52380952400000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>296</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>250</v>
+      </c>
+      <c r="B52">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>255</v>
+      </c>
+      <c r="B53">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>260</v>
+      </c>
+      <c r="B54">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>265</v>
+      </c>
+      <c r="B55">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>270</v>
+      </c>
+      <c r="B56">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>275</v>
+      </c>
+      <c r="B57">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>280</v>
+      </c>
+      <c r="B58">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>285</v>
+      </c>
+      <c r="B59">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>290</v>
+      </c>
+      <c r="B60">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>295</v>
+      </c>
+      <c r="B61">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:B61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.825396825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.77777777800000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.77777777800000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.77777777800000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.84126984100000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.825396825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.825396825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.79365079400000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.80952380999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.80952380999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.68253968300000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.63492063499999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>74</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.746031746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>80</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.71428571399999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.746031746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>92</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.79365079400000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.73015872999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>104</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.76190476200000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>110</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.79365079400000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>116</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.76190476200000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>122</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.68253968300000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>128</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.79365079400000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>134</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.77777777800000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>140</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>146</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>152</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.79365079400000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>158</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>164</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>170</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.68253968300000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>176</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.63492063499999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>182</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.58730158700000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>188</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>194</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>200</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>206</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>212</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>218</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>224</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>230</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>236</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>242</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>248</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>254</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>260</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>266</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>272</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>278</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>284</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>290</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>296</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.46031746000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>250</v>
+      </c>
+      <c r="B52">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>255</v>
+      </c>
+      <c r="B53">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>260</v>
+      </c>
+      <c r="B54">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>265</v>
+      </c>
+      <c r="B55">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>270</v>
+      </c>
+      <c r="B56">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>275</v>
+      </c>
+      <c r="B57">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>280</v>
+      </c>
+      <c r="B58">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>285</v>
+      </c>
+      <c r="B59">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>290</v>
+      </c>
+      <c r="B60">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>295</v>
+      </c>
+      <c r="B61">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5102,8 +10664,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5607,8 +11170,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
